--- a/Configs/Datas/Effects/MoveEffect.xlsx
+++ b/Configs/Datas/Effects/MoveEffect.xlsx
@@ -992,7 +992,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1013,12 +1013,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
@@ -1035,12 +1029,6 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
@@ -1056,14 +1044,6 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
@@ -1075,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:4">

--- a/Configs/Datas/Effects/MoveEffect.xlsx
+++ b/Configs/Datas/Effects/MoveEffect.xlsx
@@ -992,7 +992,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1024,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1052,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1063,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D6">
         <v>2</v>

--- a/Configs/Datas/Effects/MoveEffect.xlsx
+++ b/Configs/Datas/Effects/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="18915" windowHeight="11115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/Configs/Datas/Effects/MoveEffect.xlsx
+++ b/Configs/Datas/Effects/MoveEffect.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18915" windowHeight="11115"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -989,15 +989,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="20.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1078,6 +1078,17 @@
       </c>
       <c r="D7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1107,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1113,7 +1124,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/Effects/MoveEffect.xlsx
+++ b/Configs/Datas/Effects/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="17490" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,12 +992,12 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="5" max="5" width="20.7545454545455" customWidth="1"/>
+    <col min="5" max="5" width="20.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1088,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +1107,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1124,7 +1124,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
